--- a/form-files/IMNCI/IMNCI_up_to_2mo.xlsx
+++ b/form-files/IMNCI/IMNCI_up_to_2mo.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="123820"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="333">
   <si>
     <t>attachment_quality_signs</t>
   </si>
@@ -1104,8 +1103,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1113,9 +1118,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1157,56 +1167,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0"/>
-    <cellStyle name="Percent" xfId="1"/>
+    <cellStyle name="Comma" xfId="4"/>
+    <cellStyle name="Comma[0]" xfId="5"/>
     <cellStyle name="Currency" xfId="2"/>
     <cellStyle name="Currency[0]" xfId="3"/>
-    <cellStyle name="Comma" xfId="4"/>
-    <cellStyle name="Comma[0]" xfId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1276,11 +1287,16 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1326,7 +1342,7 @@
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="?? ??"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
@@ -1354,13 +1370,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="?? ??"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
@@ -1388,6 +1405,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1422,16 +1440,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="130000"/>
+                <a:shade val="40000"/>
+                <a:satMod val="155000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="65000">
+              <a:schemeClr val="phClr">
+                <a:shade val="85000"/>
+                <a:satMod val="155000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="155000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1439,7 +1461,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="rnd" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1454,7 +1476,7 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="34925" cap="rnd" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1464,16 +1486,16 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="64000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="39000" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1482,22 +1504,22 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="39000" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
           <a:scene3d>
-            <a:camera prst="orthographicFront">
+            <a:camera prst="orthographicFront" fov="0">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
             <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:lightRig>
           </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+          <a:sp3d prstMaterial="matte">
+            <a:bevelT h="22225"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1509,27 +1531,24 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="50000"/>
+                <a:satMod val="155000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="75000"/>
+                <a:satMod val="155000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1559,32 +1578,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.710938" style="0" customWidth="1"/>
-    <col min="2" max="2" width="37.85547" style="0" customWidth="1"/>
-    <col min="3" max="3" width="46.570312" style="0" customWidth="1"/>
-    <col min="4" max="4" width="38.285156" style="0" customWidth="1"/>
-    <col min="5" max="5" width="62.710938" style="0" customWidth="1"/>
-    <col min="6" max="6" width="44.140625" style="0" customWidth="1"/>
-    <col min="7" max="7" width="23.855469" style="0" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="0" customWidth="1"/>
-    <col min="9" max="9" width="23.425781" style="0" customWidth="1"/>
-    <col min="10" max="10" width="18.425781" style="0" customWidth="1"/>
-    <col min="11" max="11" width="19.285156" style="0" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" style="0" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="0" customWidth="1"/>
-    <col min="14" max="18" width="13.7109375" style="0" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" customWidth="1"/>
+    <col min="3" max="3" width="46.5546875" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="5" max="5" width="62.6640625" customWidth="1"/>
+    <col min="6" max="6" width="44.109375" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" customWidth="1"/>
+    <col min="9" max="9" width="23.44140625" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" customWidth="1"/>
+    <col min="12" max="12" width="7.5546875" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" customWidth="1"/>
+    <col min="14" max="18" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5">
+    <row r="1" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
@@ -1625,7 +1642,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" ht="128.25">
+    <row r="2" spans="1:13" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1651,7 +1668,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>330</v>
@@ -1662,7 +1679,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" ht="28.5">
+    <row r="4" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>221</v>
@@ -1675,7 +1692,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" ht="57">
+    <row r="5" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>261</v>
       </c>
@@ -1699,7 +1716,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>55</v>
@@ -1719,7 +1736,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" ht="16.5" customHeight="1">
+    <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>55</v>
@@ -1741,7 +1758,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" ht="16.5" customHeight="1">
+    <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>159</v>
@@ -1757,7 +1774,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" ht="28.5">
+    <row r="9" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
@@ -1777,7 +1794,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" ht="156.75">
+    <row r="10" spans="1:13" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>61</v>
       </c>
@@ -1799,7 +1816,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" ht="28.5">
+    <row r="11" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>51</v>
@@ -1819,7 +1836,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" ht="16.5" customHeight="1">
+    <row r="12" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1828,7 +1845,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" ht="16.5" customHeight="1">
+    <row r="13" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
         <v>180</v>
@@ -1846,7 +1863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="16.5" customHeight="1">
+    <row r="14" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>117</v>
@@ -1859,7 +1876,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" ht="16.5" customHeight="1">
+    <row r="15" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>55</v>
@@ -1879,7 +1896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="42.75">
+    <row r="16" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
         <v>207</v>
@@ -1897,7 +1914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="42.75">
+    <row r="17" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>207</v>
@@ -1915,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="42.75">
+    <row r="18" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>207</v>
@@ -1933,7 +1950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" ht="16.5" customHeight="1">
+    <row r="19" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
         <v>180</v>
@@ -1949,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="57">
+    <row r="20" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
         <v>22</v>
@@ -1968,7 +1985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="57">
+    <row r="21" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
         <v>330</v>
@@ -1980,7 +1997,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" ht="16.5" customHeight="1">
+    <row r="22" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
         <v>207</v>
@@ -1993,7 +2010,7 @@
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" ht="42.75">
+    <row r="23" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
         <v>207</v>
@@ -2009,7 +2026,7 @@
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" ht="16.5" customHeight="1">
+    <row r="24" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>159</v>
@@ -2018,7 +2035,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" ht="16.5" customHeight="1">
+    <row r="25" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>180</v>
@@ -2034,7 +2051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="16.5" customHeight="1">
+    <row r="26" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>180</v>
@@ -2050,7 +2067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" ht="16.5" customHeight="1">
+    <row r="27" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
         <v>180</v>
@@ -2066,7 +2083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="242.25">
+    <row r="28" spans="1:13" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>282</v>
       </c>
@@ -2086,7 +2103,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" ht="16.5" customHeight="1">
+    <row r="29" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>117</v>
@@ -2104,7 +2121,7 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" ht="42.75">
+    <row r="30" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
         <v>117</v>
@@ -2121,7 +2138,7 @@
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" ht="42.75">
+    <row r="31" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>117</v>
@@ -2138,7 +2155,7 @@
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" ht="85.5">
+    <row r="32" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>117</v>
@@ -2155,7 +2172,7 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" ht="42.75">
+    <row r="33" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
         <v>117</v>
@@ -2172,7 +2189,7 @@
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
     </row>
-    <row r="34" ht="42.75">
+    <row r="34" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
         <v>117</v>
@@ -2189,7 +2206,7 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" ht="57">
+    <row r="35" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="2" t="s">
         <v>117</v>
@@ -2206,7 +2223,7 @@
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" ht="42.75">
+    <row r="36" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
         <v>117</v>
@@ -2223,7 +2240,7 @@
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
     </row>
-    <row r="37" ht="114">
+    <row r="37" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>174</v>
       </c>
@@ -2246,7 +2263,7 @@
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
     </row>
-    <row r="38" ht="42.75">
+    <row r="38" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>307</v>
       </c>
@@ -2269,7 +2286,7 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
     </row>
-    <row r="39" ht="57">
+    <row r="39" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="2" t="s">
         <v>78</v>
@@ -2286,7 +2303,7 @@
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
     </row>
-    <row r="40" ht="42.75">
+    <row r="40" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
         <v>78</v>
@@ -2303,7 +2320,7 @@
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
     </row>
-    <row r="41" ht="16.5" customHeight="1">
+    <row r="41" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="2" t="s">
         <v>125</v>
@@ -2316,7 +2333,7 @@
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
     </row>
-    <row r="42" ht="16.5" customHeight="1">
+    <row r="42" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
         <v>47</v>
@@ -2326,7 +2343,7 @@
       <c r="E42" s="3"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" ht="16.5" customHeight="1">
+    <row r="43" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="2" t="s">
         <v>330</v>
@@ -2338,7 +2355,7 @@
       <c r="E43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" ht="409.5">
+    <row r="44" spans="1:13" ht="198" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="2" t="s">
         <v>221</v>
@@ -2350,7 +2367,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="45" ht="199.5">
+    <row r="45" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="2" t="s">
         <v>221</v>
@@ -2359,7 +2376,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" ht="171">
+    <row r="46" spans="1:13" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>49</v>
       </c>
@@ -2377,7 +2394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" ht="57">
+    <row r="47" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="2" t="s">
         <v>123</v>
@@ -2393,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" ht="85.5">
+    <row r="48" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="2" t="s">
         <v>123</v>
@@ -2409,7 +2426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" ht="42.75">
+    <row r="49" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="2" t="s">
         <v>123</v>
@@ -2425,7 +2442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" ht="16.5" customHeight="1">
+    <row r="50" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="2" t="s">
         <v>159</v>
@@ -2437,7 +2454,7 @@
       <c r="E50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" ht="16.5" customHeight="1">
+    <row r="51" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="2" t="s">
         <v>125</v>
@@ -2447,7 +2464,7 @@
       <c r="E51" s="3"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" ht="16.5" customHeight="1">
+    <row r="52" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="5" t="s">
         <v>137</v>
@@ -2460,7 +2477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" ht="16.5" customHeight="1">
+    <row r="53" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="2" t="s">
         <v>330</v>
@@ -2471,7 +2488,7 @@
       </c>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" ht="142.5">
+    <row r="54" spans="1:13" ht="66" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="2" t="s">
         <v>221</v>
@@ -2488,7 +2505,7 @@
       </c>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" ht="156.75">
+    <row r="55" spans="1:13" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>49</v>
       </c>
@@ -2506,7 +2523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" ht="71.25">
+    <row r="56" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="2" t="s">
         <v>123</v>
@@ -2522,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" ht="28.5">
+    <row r="57" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="2" t="s">
         <v>123</v>
@@ -2538,7 +2555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" ht="16.5" customHeight="1">
+    <row r="58" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="2" t="s">
         <v>159</v>
@@ -2553,12 +2570,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" ht="16.5" customHeight="1">
+    <row r="59" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" ht="16.5" customHeight="1">
+    <row r="60" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="5" t="s">
         <v>85</v>
@@ -2573,7 +2590,7 @@
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
     </row>
-    <row r="61" ht="256.5">
+    <row r="61" spans="1:13" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="2" t="s">
         <v>180</v>
@@ -2596,7 +2613,7 @@
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
     </row>
-    <row r="62" ht="16.5" customHeight="1">
+    <row r="62" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="2" t="s">
         <v>92</v>
@@ -2616,7 +2633,7 @@
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
     </row>
-    <row r="63" ht="16.5" customHeight="1">
+    <row r="63" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="2" t="s">
         <v>196</v>
@@ -2632,7 +2649,7 @@
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
     </row>
-    <row r="64" ht="16.5" customHeight="1">
+    <row r="64" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="5" t="s">
         <v>268</v>
@@ -2647,7 +2664,7 @@
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
     </row>
-    <row r="65" ht="16.5" customHeight="1">
+    <row r="65" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="2" t="s">
         <v>180</v>
@@ -2667,7 +2684,7 @@
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
     </row>
-    <row r="66" ht="16.5" customHeight="1">
+    <row r="66" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="2" t="s">
         <v>162</v>
@@ -2687,7 +2704,7 @@
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
     </row>
-    <row r="67" ht="28.5">
+    <row r="67" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="2" t="s">
         <v>330</v>
@@ -2705,7 +2722,7 @@
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
     </row>
-    <row r="68" ht="71.25">
+    <row r="68" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>18</v>
       </c>
@@ -2725,7 +2742,7 @@
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
     </row>
-    <row r="69" ht="57">
+    <row r="69" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="2" t="s">
         <v>180</v>
@@ -2747,7 +2764,7 @@
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
     </row>
-    <row r="70" ht="16.5" customHeight="1">
+    <row r="70" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="2" t="s">
         <v>180</v>
@@ -2767,7 +2784,7 @@
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
     </row>
-    <row r="71" ht="28.5">
+    <row r="71" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="2" t="s">
         <v>159</v>
@@ -2785,7 +2802,7 @@
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
     </row>
-    <row r="72" ht="16.5" customHeight="1">
+    <row r="72" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="F72" s="3"/>
@@ -2795,7 +2812,7 @@
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
     </row>
-    <row r="73" ht="42.75">
+    <row r="73" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="2" t="s">
         <v>180</v>
@@ -2816,7 +2833,7 @@
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
     </row>
-    <row r="74" ht="71.25">
+    <row r="74" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="2" t="s">
         <v>311</v>
@@ -2837,7 +2854,7 @@
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
     </row>
-    <row r="75" ht="16.5" customHeight="1">
+    <row r="75" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="2" t="s">
         <v>185</v>
@@ -2849,7 +2866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" ht="16.5" customHeight="1">
+    <row r="76" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="2" t="s">
         <v>185</v>
@@ -2861,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" ht="16.5" customHeight="1">
+    <row r="77" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="2" t="s">
         <v>93</v>
@@ -2871,7 +2888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" ht="16.5" customHeight="1">
+    <row r="78" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="5" t="s">
         <v>218</v>
@@ -2884,13 +2901,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" ht="16.5" customHeight="1">
+    <row r="79" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="80" ht="213.75">
+    <row r="80" spans="1:13" ht="66" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="2" t="s">
         <v>221</v>
@@ -2910,7 +2927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" ht="185.25">
+    <row r="81" spans="1:8" ht="66" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>77</v>
       </c>
@@ -2932,7 +2949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" ht="185.25">
+    <row r="82" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="4" t="s">
         <v>123</v>
@@ -2947,7 +2964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" ht="114">
+    <row r="83" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="4" t="s">
         <v>123</v>
@@ -2962,7 +2979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" ht="57">
+    <row r="84" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="4" t="s">
         <v>123</v>
@@ -2977,7 +2994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" ht="57">
+    <row r="85" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="4" t="s">
         <v>123</v>
@@ -2992,13 +3009,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" ht="16.5" customHeight="1">
+    <row r="86" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="87" ht="42.75">
+    <row r="87" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="4" t="s">
         <v>196</v>
@@ -3007,7 +3024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" ht="16.5" customHeight="1">
+    <row r="88" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="5" t="s">
         <v>175</v>
@@ -3020,7 +3037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" ht="85.5">
+    <row r="89" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="2" t="s">
         <v>221</v>
@@ -3038,7 +3055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" ht="185.25">
+    <row r="90" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="4" t="s">
         <v>123</v>
@@ -3054,7 +3071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" ht="42.75">
+    <row r="91" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="4" t="s">
         <v>196</v>
@@ -3063,7 +3080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" ht="42.75">
+    <row r="92" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="6" t="s">
         <v>191</v>
@@ -3072,13 +3089,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" ht="16.5" customHeight="1">
+    <row r="93" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="94" ht="42.75">
+    <row r="94" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="2" t="s">
         <v>221</v>
@@ -3096,7 +3113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" ht="85.5">
+    <row r="95" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>226</v>
       </c>
@@ -3110,7 +3127,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" ht="42.75">
+    <row r="96" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="4" t="s">
         <v>123</v>
@@ -3122,7 +3139,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="97" ht="57">
+    <row r="97" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="4" t="s">
         <v>123</v>
@@ -3134,7 +3151,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="98" ht="71.25">
+    <row r="98" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>182</v>
       </c>
@@ -3151,13 +3168,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" ht="16.5" customHeight="1">
+    <row r="99" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="100" ht="42.75">
+    <row r="100" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="4" t="s">
         <v>196</v>
@@ -3166,10 +3183,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" ht="16.5" customHeight="1">
+    <row r="101" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
     </row>
-    <row r="102" ht="42.75">
+    <row r="102" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="6" t="s">
         <v>167</v>
@@ -3178,7 +3195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" ht="42.75">
+    <row r="103" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="2" t="s">
         <v>180</v>
@@ -3193,7 +3210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" ht="42.75">
+    <row r="104" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="2" t="s">
         <v>180</v>
@@ -3208,7 +3225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" ht="71.25">
+    <row r="105" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="2" t="s">
         <v>55</v>
@@ -3223,7 +3240,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="106" ht="114">
+    <row r="106" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="2" t="s">
         <v>180</v>
@@ -3238,7 +3255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" ht="85.5">
+    <row r="107" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>138</v>
       </c>
@@ -3252,7 +3269,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="108" ht="99.75">
+    <row r="108" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>57</v>
       </c>
@@ -3266,7 +3283,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" ht="57">
+    <row r="109" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>31</v>
       </c>
@@ -3283,7 +3300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" ht="57">
+    <row r="110" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="4" t="s">
         <v>26</v>
@@ -3292,7 +3309,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="111" ht="99.75">
+    <row r="111" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>242</v>
       </c>
@@ -3309,7 +3326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" ht="42.75">
+    <row r="112" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="4" t="s">
         <v>180</v>
@@ -3321,7 +3338,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="113" ht="114">
+    <row r="113" spans="1:13" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>108</v>
       </c>
@@ -3345,7 +3362,7 @@
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
     </row>
-    <row r="114" ht="99.75">
+    <row r="114" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="2" t="s">
         <v>199</v>
@@ -3370,7 +3387,7 @@
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
     </row>
-    <row r="115" ht="16.5" customHeight="1">
+    <row r="115" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="7" t="s">
         <v>152</v>
@@ -3386,7 +3403,7 @@
       <c r="L115" s="4"/>
       <c r="M115" s="4"/>
     </row>
-    <row r="116" ht="16.5" customHeight="1">
+    <row r="116" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="2" t="s">
         <v>180</v>
@@ -3409,7 +3426,7 @@
       <c r="L116" s="4"/>
       <c r="M116" s="4"/>
     </row>
-    <row r="117" ht="85.5">
+    <row r="117" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="2" t="s">
         <v>180</v>
@@ -3424,7 +3441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" ht="42.75">
+    <row r="118" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="2" t="s">
         <v>207</v>
@@ -3439,7 +3456,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="119" ht="71.25">
+    <row r="119" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>50</v>
       </c>
@@ -3456,7 +3473,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="120" ht="85.5">
+    <row r="120" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>97</v>
       </c>
@@ -3479,7 +3496,7 @@
       <c r="L120" s="4"/>
       <c r="M120" s="4"/>
     </row>
-    <row r="121" ht="16.5" customHeight="1">
+    <row r="121" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="2" t="s">
         <v>272</v>
@@ -3500,7 +3517,7 @@
       <c r="L121" s="4"/>
       <c r="M121" s="4"/>
     </row>
-    <row r="122" ht="16.5" customHeight="1">
+    <row r="122" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="2" t="s">
         <v>330</v>
@@ -3515,7 +3532,7 @@
       <c r="L122" s="4"/>
       <c r="M122" s="4"/>
     </row>
-    <row r="123" ht="57">
+    <row r="123" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="2" t="s">
         <v>221</v>
@@ -3538,7 +3555,7 @@
       <c r="L123" s="4"/>
       <c r="M123" s="4"/>
     </row>
-    <row r="124" ht="28.5">
+    <row r="124" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="2" t="s">
         <v>123</v>
@@ -3557,7 +3574,7 @@
       <c r="L124" s="4"/>
       <c r="M124" s="4"/>
     </row>
-    <row r="125" ht="57">
+    <row r="125" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="2" t="s">
         <v>123</v>
@@ -3579,7 +3596,7 @@
       <c r="L125" s="4"/>
       <c r="M125" s="4"/>
     </row>
-    <row r="126" ht="16.5" customHeight="1">
+    <row r="126" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="2" t="s">
         <v>159</v>
@@ -3594,7 +3611,7 @@
       <c r="L126" s="4"/>
       <c r="M126" s="4"/>
     </row>
-    <row r="127" ht="16.5" customHeight="1">
+    <row r="127" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="2" t="s">
         <v>43</v>
@@ -3613,7 +3630,7 @@
       <c r="L127" s="4"/>
       <c r="M127" s="4"/>
     </row>
-    <row r="128" ht="16.5" customHeight="1">
+    <row r="128" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="5" t="s">
         <v>109</v>
@@ -3632,7 +3649,7 @@
       <c r="L128" s="4"/>
       <c r="M128" s="4"/>
     </row>
-    <row r="129" ht="16.5" customHeight="1">
+    <row r="129" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="2" t="s">
         <v>330</v>
@@ -3647,7 +3664,7 @@
       <c r="L129" s="4"/>
       <c r="M129" s="4"/>
     </row>
-    <row r="130" ht="409.5">
+    <row r="130" spans="1:13" ht="211.2" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="2" t="s">
         <v>221</v>
@@ -3670,7 +3687,7 @@
       <c r="L130" s="4"/>
       <c r="M130" s="4"/>
     </row>
-    <row r="131" ht="114">
+    <row r="131" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="2" t="s">
         <v>123</v>
@@ -3692,7 +3709,7 @@
       <c r="L131" s="4"/>
       <c r="M131" s="4"/>
     </row>
-    <row r="132" ht="114">
+    <row r="132" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="2" t="s">
         <v>123</v>
@@ -3716,7 +3733,7 @@
       <c r="L132" s="4"/>
       <c r="M132" s="4"/>
     </row>
-    <row r="133" ht="213.75">
+    <row r="133" spans="1:13" ht="66" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="2" t="s">
         <v>123</v>
@@ -3733,7 +3750,7 @@
       <c r="L133" s="4"/>
       <c r="M133" s="4"/>
     </row>
-    <row r="134" ht="199.5">
+    <row r="134" spans="1:13" ht="66" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="2" t="s">
         <v>123</v>
@@ -3753,7 +3770,7 @@
       <c r="L134" s="4"/>
       <c r="M134" s="4"/>
     </row>
-    <row r="135" ht="114">
+    <row r="135" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="2" t="s">
         <v>123</v>
@@ -3773,7 +3790,7 @@
       <c r="L135" s="4"/>
       <c r="M135" s="4"/>
     </row>
-    <row r="136" ht="114">
+    <row r="136" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="2" t="s">
         <v>123</v>
@@ -3793,7 +3810,7 @@
       <c r="L136" s="4"/>
       <c r="M136" s="4"/>
     </row>
-    <row r="137" ht="242.25">
+    <row r="137" spans="1:13" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="2" t="s">
         <v>123</v>
@@ -3813,7 +3830,7 @@
       <c r="L137" s="4"/>
       <c r="M137" s="4"/>
     </row>
-    <row r="138" ht="28.5">
+    <row r="138" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="2" t="s">
         <v>123</v>
@@ -3835,7 +3852,7 @@
       <c r="L138" s="4"/>
       <c r="M138" s="4"/>
     </row>
-    <row r="139" ht="16.5" customHeight="1">
+    <row r="139" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="2" t="s">
         <v>159</v>
@@ -3850,7 +3867,7 @@
       <c r="L139" s="4"/>
       <c r="M139" s="4"/>
     </row>
-    <row r="140" ht="16.5" customHeight="1">
+    <row r="140" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="2" t="s">
         <v>43</v>
@@ -3866,7 +3883,7 @@
       <c r="L140" s="4"/>
       <c r="M140" s="4"/>
     </row>
-    <row r="141" ht="16.5" customHeight="1">
+    <row r="141" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="5" t="s">
         <v>260</v>
@@ -3882,7 +3899,7 @@
       <c r="L141" s="4"/>
       <c r="M141" s="4"/>
     </row>
-    <row r="142" ht="16.5" customHeight="1">
+    <row r="142" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="2" t="s">
         <v>330</v>
@@ -3897,7 +3914,7 @@
       <c r="L142" s="4"/>
       <c r="M142" s="4"/>
     </row>
-    <row r="143" ht="199.5">
+    <row r="143" spans="1:13" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="2" t="s">
         <v>221</v>
@@ -3917,7 +3934,7 @@
       <c r="L143" s="4"/>
       <c r="M143" s="4"/>
     </row>
-    <row r="144" ht="85.5">
+    <row r="144" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="2" t="s">
         <v>123</v>
@@ -3939,7 +3956,7 @@
       <c r="L144" s="4"/>
       <c r="M144" s="4"/>
     </row>
-    <row r="145" ht="42.75">
+    <row r="145" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="2" t="s">
         <v>123</v>
@@ -3961,7 +3978,7 @@
       <c r="L145" s="4"/>
       <c r="M145" s="4"/>
     </row>
-    <row r="146" ht="16.5" customHeight="1">
+    <row r="146" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="4" t="s">
         <v>159</v>
@@ -3976,7 +3993,7 @@
       <c r="L146" s="4"/>
       <c r="M146" s="4"/>
     </row>
-    <row r="147" ht="16.5" customHeight="1">
+    <row r="147" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="2" t="s">
         <v>43</v>
@@ -3995,7 +4012,7 @@
       <c r="L147" s="4"/>
       <c r="M147" s="4"/>
     </row>
-    <row r="148" ht="16.5" customHeight="1">
+    <row r="148" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="3"/>
@@ -4007,7 +4024,7 @@
       <c r="L148" s="4"/>
       <c r="M148" s="4"/>
     </row>
-    <row r="149" ht="42.75">
+    <row r="149" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="6" t="s">
         <v>206</v>
@@ -4026,7 +4043,7 @@
       <c r="L149" s="4"/>
       <c r="M149" s="4"/>
     </row>
-    <row r="150" ht="185.25">
+    <row r="150" spans="1:13" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>80</v>
       </c>
@@ -4050,7 +4067,7 @@
       <c r="L150" s="4"/>
       <c r="M150" s="4"/>
     </row>
-    <row r="151" ht="16.5" customHeight="1">
+    <row r="151" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -4067,7 +4084,7 @@
       <c r="L151" s="4"/>
       <c r="M151" s="4"/>
     </row>
-    <row r="152" ht="28.5">
+    <row r="152" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="2" t="s">
         <v>102</v>
@@ -4090,7 +4107,7 @@
       <c r="L152" s="4"/>
       <c r="M152" s="4"/>
     </row>
-    <row r="153" ht="16.5" customHeight="1">
+    <row r="153" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -4107,11 +4124,7 @@
       <c r="L153" s="4"/>
       <c r="M153" s="4"/>
     </row>
-    <row r="154" ht="16.5" customHeight="1"/>
-    <row r="155" ht="16.5" customHeight="1"/>
-    <row r="156" ht="16.5" customHeight="1"/>
-    <row r="157" ht="16.5" customHeight="1"/>
-    <row r="158" ht="16.5" customHeight="1">
+    <row r="158" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -4126,7 +4139,7 @@
       <c r="L158" s="4"/>
       <c r="M158" s="4"/>
     </row>
-    <row r="159" ht="16.5" customHeight="1">
+    <row r="159" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -4141,7 +4154,7 @@
       <c r="L159" s="4"/>
       <c r="M159" s="4"/>
     </row>
-    <row r="160" ht="16.5" customHeight="1">
+    <row r="160" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -4156,7 +4169,7 @@
       <c r="L160" s="4"/>
       <c r="M160" s="4"/>
     </row>
-    <row r="161" ht="16.5" customHeight="1">
+    <row r="161" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -4171,7 +4184,7 @@
       <c r="L161" s="4"/>
       <c r="M161" s="4"/>
     </row>
-    <row r="162" ht="16.5" customHeight="1">
+    <row r="162" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -4186,7 +4199,7 @@
       <c r="L162" s="4"/>
       <c r="M162" s="4"/>
     </row>
-    <row r="163" ht="16.5" customHeight="1">
+    <row r="163" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -4201,7 +4214,7 @@
       <c r="L163" s="4"/>
       <c r="M163" s="4"/>
     </row>
-    <row r="164" ht="16.5" customHeight="1">
+    <row r="164" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -4216,7 +4229,7 @@
       <c r="L164" s="4"/>
       <c r="M164" s="4"/>
     </row>
-    <row r="165" ht="16.5" customHeight="1">
+    <row r="165" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -4231,7 +4244,7 @@
       <c r="L165" s="4"/>
       <c r="M165" s="4"/>
     </row>
-    <row r="166" ht="16.5" customHeight="1">
+    <row r="166" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -4247,31 +4260,29 @@
       <c r="M166" s="4"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
-  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.285156" style="0" customWidth="1"/>
-    <col min="2" max="2" width="17.570312" style="0" customWidth="1"/>
-    <col min="3" max="3" width="36.85547" style="0" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="0" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="36.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>155</v>
       </c>
@@ -4285,7 +4296,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" ht="14.25">
+    <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -4296,7 +4307,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" ht="14.25">
+    <row r="3" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -4307,12 +4318,12 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" ht="14.25">
+    <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" ht="14.25">
+    <row r="5" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>195</v>
       </c>
@@ -4323,7 +4334,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" ht="14.25">
+    <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>195</v>
       </c>
@@ -4334,12 +4345,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="7" ht="14.25">
+    <row r="7" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" ht="14.25">
+    <row r="8" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>69</v>
       </c>
@@ -4350,7 +4361,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" ht="14.25">
+    <row r="9" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>69</v>
       </c>
@@ -4361,12 +4372,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="10" ht="14.25">
+    <row r="10" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" ht="14.25">
+    <row r="11" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>122</v>
       </c>
@@ -4377,7 +4388,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="12" ht="14.25">
+    <row r="12" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>122</v>
       </c>
@@ -4388,16 +4399,16 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" ht="14.25">
+    <row r="13" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" ht="14.25">
+    <row r="14" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" ht="42.75">
+    <row r="15" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>143</v>
       </c>
@@ -4408,7 +4419,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" ht="14.25">
+    <row r="16" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>143</v>
       </c>
@@ -4419,7 +4430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" ht="42.75">
+    <row r="17" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>143</v>
       </c>
@@ -4430,9 +4441,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" ht="12.75" customHeight="1"/>
-    <row r="19" ht="12.75" customHeight="1"/>
-    <row r="20" ht="42.75">
+    <row r="20" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>299</v>
       </c>
@@ -4443,7 +4452,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="21" ht="28.5">
+    <row r="21" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>299</v>
       </c>
@@ -4454,7 +4463,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" ht="28.5">
+    <row r="22" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>299</v>
       </c>
@@ -4465,13 +4474,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" ht="12.75" customHeight="1"/>
-    <row r="24" ht="14.25">
+    <row r="24" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" ht="14.25">
+    <row r="25" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>38</v>
       </c>
@@ -4482,7 +4490,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="26" ht="28.5">
+    <row r="26" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
@@ -4493,7 +4501,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" ht="28.5">
+    <row r="27" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
@@ -4504,9 +4512,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" ht="12.75" customHeight="1"/>
-    <row r="29" ht="12.75" customHeight="1"/>
-    <row r="30" ht="28.5">
+    <row r="30" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>3</v>
       </c>
@@ -4516,11 +4522,11 @@
       <c r="C30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="4" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31" ht="28.5">
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>3</v>
       </c>
@@ -4530,11 +4536,11 @@
       <c r="C31" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="4" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32" ht="28.5">
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>3</v>
       </c>
@@ -4544,11 +4550,11 @@
       <c r="C32" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D32" s="4" t="n">
+      <c r="D32" s="4">
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" ht="28.5">
+    <row r="33" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>3</v>
       </c>
@@ -4558,13 +4564,11 @@
       <c r="C33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="4" t="n">
+      <c r="D33" s="4">
         <v>1.5</v>
       </c>
     </row>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="14.25">
+    <row r="36" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>286</v>
       </c>
@@ -4575,7 +4579,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="37" ht="14.25">
+    <row r="37" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>286</v>
       </c>
@@ -4586,7 +4590,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="38" ht="14.25">
+    <row r="38" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>286</v>
       </c>
@@ -4597,9 +4601,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="28.5">
+    <row r="41" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>54</v>
       </c>
@@ -4610,7 +4612,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="42" ht="28.5">
+    <row r="42" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>54</v>
       </c>
@@ -4621,7 +4623,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="43" ht="42.75">
+    <row r="43" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>54</v>
       </c>
@@ -4632,7 +4634,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" ht="71.25">
+    <row r="44" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>54</v>
       </c>
@@ -4643,36 +4645,27 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" ht="12.75" customHeight="1"/>
-    <row r="46" ht="12.75" customHeight="1"/>
-    <row r="47" ht="12.75" customHeight="1"/>
-    <row r="48" ht="12.75" customHeight="1"/>
-    <row r="49" ht="12.75" customHeight="1"/>
-    <row r="50" ht="12.75" customHeight="1"/>
-    <row r="51" ht="12.75" customHeight="1"/>
-    <row r="52" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
-  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.855469" style="0" customWidth="1"/>
-    <col min="2" max="2" width="16.425781" style="0" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>129</v>
       </c>
@@ -4680,7 +4673,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="2" ht="14.25">
+    <row r="2" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>89</v>
       </c>
@@ -4688,15 +4681,15 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" ht="14.25">
+    <row r="3" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25">
+      <c r="B3" s="4">
+        <v>20130408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>170</v>
       </c>
@@ -4704,7 +4697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="57">
+    <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>144</v>
       </c>
@@ -4712,24 +4705,8 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
-    <row r="17" ht="12.75" customHeight="1"/>
-    <row r="18" ht="12.75" customHeight="1"/>
-    <row r="19" ht="12.75" customHeight="1"/>
-    <row r="20" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
-  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>